--- a/fixtures/expected_basic/output.xlsx
+++ b/fixtures/expected_basic/output.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="platforms" sheetId="1" r:id="rId1"/>
-    <sheet name="main" sheetId="2" r:id="rId2"/>
-    <sheet name="developer" sheetId="3" r:id="rId3"/>
+    <sheet name="developer" sheetId="1" r:id="rId1"/>
+    <sheet name="platforms" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -342,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.platforms.0</t>
+          <t>1.developer.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -378,14 +378,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>deva</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2.platforms.0</t>
+          <t>2.developer.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -395,24 +395,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Xbox</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2.platforms.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Playstation</t>
+          <t>devb</t>
         </is>
       </c>
     </row>
@@ -422,6 +405,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>_link</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>_link_main</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.platforms.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.platforms.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Xbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2.platforms.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Playstation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -447,22 +511,22 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>releaseDate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>rating_code</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>rating_name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>releaseDate</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>title</t>
         </is>
       </c>
     </row>
@@ -482,22 +546,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>A Game</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Everyone</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2015-01-01</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A Game</t>
         </is>
       </c>
     </row>
@@ -517,86 +581,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>B Game</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Everyone</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2016-01-01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B Game</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>_link</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>_link_main</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.developer.0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>deva</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2.developer.0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>devb</t>
         </is>
       </c>
     </row>
